--- a/gsem/gsem_settings/GWAS_sumstats_settings_full.xlsx
+++ b/gsem/gsem_settings/GWAS_sumstats_settings_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineschaumberg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineschaumberg/Library/CloudStorage/Box-Box/GENIE_GSEM/gsem/gsem_settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C021DC83-DDD4-5E48-8725-20DC10575D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CAE33B-A87B-1D44-AE2D-7BC6F89B7749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="40760" windowHeight="21760" xr2:uid="{84FADF53-49EC-D64F-B771-3FD9567A889C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{84FADF53-49EC-D64F-B771-3FD9567A889C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>56</v>
